--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_017.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_017.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295003AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Load shedding</t>
-  </si>
-  <si>
-    <t>(295016AK2.12) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EK2.03) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Low-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
+    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
+  </si>
+  <si>
+    <t>(295037EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
   </si>
   <si>
     <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
   </si>
   <si>
-    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AK2.03) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295024EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber air-space temperature</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
-  </si>
-  <si>
-    <t>(295037EA1.17) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AK2.05) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Fire alarm panels</t>
+    <t>(295025EK2.12) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295024EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) LPCS</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
+  </si>
+  <si>
+    <t>(295027EK2.03) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295031EK2.12) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295001AA1.05) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295013AA2.01) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295017AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295007AK2.01) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295033EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) SGTS/FRVS </t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
   </si>
   <si>
-    <t>(295009AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295020AA1.01) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295036EK2.04) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Area/room/sump level indicators</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
+    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(215005K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) RPS</t>
   </si>
   <si>
     <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
   </si>
   <si>
-    <t>(261000A3.01) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
-  </si>
-  <si>
-    <t>(510000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of coolant accident</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
-  </si>
-  <si>
-    <t>(203000K4.04) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Pump seal cooler</t>
-  </si>
-  <si>
-    <t>(239002K3.04) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization system</t>
-  </si>
-  <si>
-    <t>(205000K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system (BWR 6)</t>
-  </si>
-  <si>
-    <t>(263000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Hydrogen generation</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(223002A4.03) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system isolations</t>
-  </si>
-  <si>
-    <t>(217000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) RCIC flow</t>
-  </si>
-  <si>
-    <t>(259002A3.06) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level setpoint setdown following a reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(300000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
-  </si>
-  <si>
-    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(211000K4.04) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Indication of a fault in squib valves firing circuits</t>
-  </si>
-  <si>
-    <t>(262002K3.21) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM/LPRM/OPRM system</t>
-  </si>
-  <si>
-    <t>(218000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+    <t>(259002A3.09) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Transfer of system from flow control to level control mode: FWCI</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(212000K4.03) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Transferring RPS power supplies</t>
+  </si>
+  <si>
+    <t>(217000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(300000K3.15) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling cleanup system</t>
+  </si>
+  <si>
+    <t>(264000A4.02) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchroscope</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
+  </si>
+  <si>
+    <t>(261000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment isolation system/nuclear steam supply shutoff system</t>
+  </si>
+  <si>
+    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
+  </si>
+  <si>
+    <t>(400000A3.02) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
+  </si>
+  <si>
+    <t>(211000K2.01) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SLCS pumps</t>
+  </si>
+  <si>
+    <t>(239002K4.05) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Allows for SRV operation from more than one location</t>
+  </si>
+  <si>
+    <t>(215003K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(223002K3.25) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.13) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Modes of failure</t>
   </si>
   <si>
     <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
   </si>
   <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291002K1.23) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Theory and operation of ion chambers, Geiger-Mueller tubes, and scintillation detectors</t>
-  </si>
-  <si>
-    <t>(264000A4.02) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchroscope</t>
-  </si>
-  <si>
-    <t>(215004A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(261000A3.04) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System temperature</t>
-  </si>
-  <si>
-    <t>(510000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of ultimate heat sink</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(290003A4.03) Ability to manually operate and/or monitor the (SF9 CRV) CONTROL ROOM VENTILATION in the control room: (CFR: 41.7 / 45.5 to 45.8) Dampers</t>
-  </si>
-  <si>
-    <t>(215001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Area radiation levels</t>
-  </si>
-  <si>
-    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(286000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Diesel-driven fire pump</t>
-  </si>
-  <si>
-    <t>(239003K2.01) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(202002A2.13) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of loop flow signal</t>
-  </si>
-  <si>
-    <t>(290001K4.02) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Protection against overpressurization</t>
-  </si>
-  <si>
-    <t>(201003K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Rod position and indicating system (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(223001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment/drywell atmosphere control system</t>
-  </si>
-  <si>
-    <t>(234000K5.11) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Area radiation monitors response to fuel handling event</t>
+    <t>(262001A2.01) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine/generator trip</t>
+  </si>
+  <si>
+    <t>(215005K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Recorder</t>
+  </si>
+  <si>
+    <t>(215004A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SRMS count rate and period</t>
+  </si>
+  <si>
+    <t>(259002A3.08) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWCI system initiation</t>
+  </si>
+  <si>
+    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(245000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator cooling</t>
+  </si>
+  <si>
+    <t>(241000A2.22) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine high vibration</t>
+  </si>
+  <si>
+    <t>(216000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) Loss of a recirculation pump</t>
+  </si>
+  <si>
+    <t>(201003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM including: (CFR: 41.1-6 / 45.1-6) CRD mechanism temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(256000A3.07) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) Feedwater heater level </t>
+  </si>
+  <si>
+    <t>(234000K4.06) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Protection from dropping a fuel assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201005K4.11) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Rod pattern controller </t>
+  </si>
+  <si>
+    <t>(259001K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(204000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Area temperature</t>
+  </si>
+  <si>
+    <t>(239003A4.04) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
+  </si>
+  <si>
+    <t>(293008K1.26) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the jet pump operating principle</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010AA2.07) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment or suppression chamber differential</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(212000A2.07) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High reactor pressure</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(272000A2.17) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant ventilation systems abnormal radiation levels </t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(215001A2.03) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Drive mechanism failure</t>
   </si>
   <si>
     <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292008K1.14) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe three parameters to be monitored and controlled during heatup</t>
-  </si>
-  <si>
-    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
-  </si>
-  <si>
-    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(203000A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.10) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position </t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(216000A2.06) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of power supply </t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(226001A2.03) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>600000</t>
   </si>
   <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
     <t>295011</t>
   </si>
   <si>
-    <t>295009</t>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295010</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>510001</t>
   </si>
   <si>
     <t>215001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1582,7 +1582,7 @@
         <v>4.6</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1616,7 +1616,7 @@
         <v>4.1</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1667,7 +1667,7 @@
         <v>3.6</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
         <v>116</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D64" t="s">
         <v>114</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
